--- a/Code/Results/Cases/Case_3_177/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_177/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.377749692772966</v>
+        <v>2.073190472657984</v>
       </c>
       <c r="C2">
-        <v>0.4645516874734881</v>
+        <v>0.1611398126446772</v>
       </c>
       <c r="D2">
-        <v>0.03222142171687281</v>
+        <v>0.09127684349529019</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.415754461024278</v>
+        <v>2.345165255646435</v>
       </c>
       <c r="G2">
-        <v>1.192930549399549</v>
+        <v>1.676800007928222</v>
       </c>
       <c r="H2">
-        <v>0.7617061192885615</v>
+        <v>1.473155296510186</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07116419450641409</v>
+        <v>0.1913408601438089</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3200891884570893</v>
+        <v>0.3872427179576903</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.938394054844991</v>
+        <v>1.95656535736407</v>
       </c>
       <c r="C3">
-        <v>0.4114237691109963</v>
+        <v>0.1441581447731153</v>
       </c>
       <c r="D3">
-        <v>0.03030784876638393</v>
+        <v>0.09090038879359597</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.345417517731718</v>
+        <v>2.347493863243159</v>
       </c>
       <c r="G3">
-        <v>1.12011214903562</v>
+        <v>1.674475025908563</v>
       </c>
       <c r="H3">
-        <v>0.7382519539413295</v>
+        <v>1.479225310039354</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07358774328884543</v>
+        <v>0.1930563297397931</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2857303063606764</v>
+        <v>0.3798261718278297</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.67104244696128</v>
+        <v>1.885725325509839</v>
       </c>
       <c r="C4">
-        <v>0.3788978047800526</v>
+        <v>0.133672008254365</v>
       </c>
       <c r="D4">
-        <v>0.0291477608163504</v>
+        <v>0.09067935948151984</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.305645429355309</v>
+        <v>2.350371484442704</v>
       </c>
       <c r="G4">
-        <v>1.078675160720593</v>
+        <v>1.674265717346486</v>
       </c>
       <c r="H4">
-        <v>0.7256527668442345</v>
+        <v>1.483775618622062</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07518615709896892</v>
+        <v>0.1941777628944834</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2649422277191462</v>
+        <v>0.3754265323428854</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.562614000338613</v>
+        <v>1.857051517381478</v>
       </c>
       <c r="C5">
-        <v>0.3656580301295094</v>
+        <v>0.1293839957401701</v>
       </c>
       <c r="D5">
-        <v>0.02867833803169972</v>
+        <v>0.09059184975274093</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.290238876165901</v>
+        <v>2.351907474466913</v>
       </c>
       <c r="G5">
-        <v>1.062552039041293</v>
+        <v>1.674485754647648</v>
       </c>
       <c r="H5">
-        <v>0.7209437465586319</v>
+        <v>1.485836617885639</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07586453848612784</v>
+        <v>0.1946518946041724</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.256540793545156</v>
+        <v>0.37367250810928</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.54463847858608</v>
+        <v>1.852302002411648</v>
       </c>
       <c r="C6">
-        <v>0.3634602208820468</v>
+        <v>0.1286710817993253</v>
       </c>
       <c r="D6">
-        <v>0.02860058012652189</v>
+        <v>0.09057747407240413</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.287727385529564</v>
+        <v>2.352184447540779</v>
       </c>
       <c r="G6">
-        <v>1.059919189407097</v>
+        <v>1.674540703639309</v>
       </c>
       <c r="H6">
-        <v>0.7201867246004667</v>
+        <v>1.486191320991537</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07597879429232179</v>
+        <v>0.1947316591574335</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2551497484271579</v>
+        <v>0.3733836041171514</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.669578150631537</v>
+        <v>1.885337833478559</v>
       </c>
       <c r="C7">
-        <v>0.3787191999365973</v>
+        <v>0.1336142385247285</v>
       </c>
       <c r="D7">
-        <v>0.02914141707920948</v>
+        <v>0.09067816889870883</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.305434481961129</v>
+        <v>2.350390729196576</v>
       </c>
       <c r="G7">
-        <v>1.078454707000787</v>
+        <v>1.674267449907205</v>
       </c>
       <c r="H7">
-        <v>0.7255875728828016</v>
+        <v>1.483802577436961</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07519519753903658</v>
+        <v>0.1941840877974688</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2648286498489512</v>
+        <v>0.3754027194589753</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.225703758784732</v>
+        <v>2.032819167844821</v>
       </c>
       <c r="C8">
-        <v>0.4462078347011129</v>
+        <v>0.1552968944695863</v>
       </c>
       <c r="D8">
-        <v>0.03155827677574763</v>
+        <v>0.09114495291554903</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.390757368128206</v>
+        <v>2.34566720914745</v>
       </c>
       <c r="G8">
-        <v>1.167105551835604</v>
+        <v>1.675744898377218</v>
       </c>
       <c r="H8">
-        <v>0.7532277970038592</v>
+        <v>1.475077171409893</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07197647663772955</v>
+        <v>0.1919182186128623</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3081734249993247</v>
+        <v>0.3846535565816822</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.339788248079572</v>
+        <v>2.32810404988254</v>
       </c>
       <c r="C9">
-        <v>0.5797576276259804</v>
+        <v>0.1973440037238561</v>
       </c>
       <c r="D9">
-        <v>0.03643677321175431</v>
+        <v>0.09213987700297466</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.588011567862992</v>
+        <v>2.347928519379877</v>
       </c>
       <c r="G9">
-        <v>1.36989272804604</v>
+        <v>1.68835626697981</v>
       </c>
       <c r="H9">
-        <v>0.823092011673765</v>
+        <v>1.464514404433629</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06657558850307232</v>
+        <v>0.188015058170647</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3960007710556397</v>
+        <v>0.4040144515012969</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.179402052864532</v>
+        <v>2.548750816030122</v>
       </c>
       <c r="C10">
-        <v>0.6793170288479473</v>
+        <v>0.2279487546029202</v>
       </c>
       <c r="D10">
-        <v>0.04013959660067101</v>
+        <v>0.09291854064959182</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.755525221749735</v>
+        <v>2.356669461281967</v>
       </c>
       <c r="G10">
-        <v>1.541063955287342</v>
+        <v>1.70361393355725</v>
       </c>
       <c r="H10">
-        <v>0.8860585408533836</v>
+        <v>1.460768367579419</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06321651010746088</v>
+        <v>0.1854761800365274</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4628400432105764</v>
+        <v>0.4189806271361647</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.567642262618392</v>
+        <v>2.649934126848962</v>
       </c>
       <c r="C11">
-        <v>0.7251007771762943</v>
+        <v>0.241809711273504</v>
       </c>
       <c r="D11">
-        <v>0.04185869917215257</v>
+        <v>0.09328297395022744</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.837723448765814</v>
+        <v>2.362195195546477</v>
       </c>
       <c r="G11">
-        <v>1.624888451912142</v>
+        <v>1.711871546500248</v>
       </c>
       <c r="H11">
-        <v>0.9177544565079927</v>
+        <v>1.459940950688036</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06183391653751258</v>
+        <v>0.1843924534483552</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4938965212404867</v>
+        <v>0.4259499342398243</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.715722101530901</v>
+        <v>2.68836572958952</v>
       </c>
       <c r="C12">
-        <v>0.7425256208356075</v>
+        <v>0.2470496538507234</v>
       </c>
       <c r="D12">
-        <v>0.0425155145529672</v>
+        <v>0.09342242966280523</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.869813913159561</v>
+        <v>2.364511362379801</v>
       </c>
       <c r="G12">
-        <v>1.657594249727481</v>
+        <v>1.715189028635706</v>
       </c>
       <c r="H12">
-        <v>0.9302450644413796</v>
+        <v>1.459754085665736</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06133253571455199</v>
+        <v>0.1839923094945881</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5057641191260274</v>
+        <v>0.4286121391527615</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.683780562652373</v>
+        <v>2.680083663777793</v>
       </c>
       <c r="C13">
-        <v>0.7387686919019529</v>
+        <v>0.2459215356579989</v>
       </c>
       <c r="D13">
-        <v>0.0423737837312963</v>
+        <v>0.09339233102309663</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.862858053572708</v>
+        <v>2.364002571549733</v>
       </c>
       <c r="G13">
-        <v>1.650505804328418</v>
+        <v>1.714466058524806</v>
       </c>
       <c r="H13">
-        <v>0.9275324402809986</v>
+        <v>1.459788699732115</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06143950922528063</v>
+        <v>0.1840780322643063</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5032032204287731</v>
+        <v>0.4280377606104366</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.57980264441602</v>
+        <v>2.653093604000333</v>
       </c>
       <c r="C14">
-        <v>0.7265324736746379</v>
+        <v>0.2422409833686459</v>
       </c>
       <c r="D14">
-        <v>0.04191261372028166</v>
+        <v>0.0932944180313342</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.84034361265131</v>
+        <v>2.362381259800003</v>
       </c>
       <c r="G14">
-        <v>1.62755921929147</v>
+        <v>1.712140653205495</v>
       </c>
       <c r="H14">
-        <v>0.9187719838215287</v>
+        <v>1.459923040474564</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0617922154825159</v>
+        <v>0.1843593281533877</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.494870644484493</v>
+        <v>0.4261684933916854</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.516256367966832</v>
+        <v>2.63657645481203</v>
       </c>
       <c r="C15">
-        <v>0.7190493595495298</v>
+        <v>0.2399853771734399</v>
       </c>
       <c r="D15">
-        <v>0.0416309197803848</v>
+        <v>0.09323463221182493</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.826681588013443</v>
+        <v>2.361417317057814</v>
       </c>
       <c r="G15">
-        <v>1.613632585243096</v>
+        <v>1.710741118528915</v>
       </c>
       <c r="H15">
-        <v>0.9134710626931053</v>
+        <v>1.460021808632405</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06201118602169586</v>
+        <v>0.1845329634787198</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4897810877527604</v>
+        <v>0.4250265162912683</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.154169309425072</v>
+        <v>2.542154478893167</v>
       </c>
       <c r="C16">
-        <v>0.6763362585207346</v>
+        <v>0.2270416675325748</v>
       </c>
       <c r="D16">
-        <v>0.04002801638605291</v>
+        <v>0.09289492823839751</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.750282456482907</v>
+        <v>2.35633959563782</v>
       </c>
       <c r="G16">
-        <v>1.535714558372746</v>
+        <v>1.703100874837361</v>
       </c>
       <c r="H16">
-        <v>0.8840526349434015</v>
+        <v>1.460840115853443</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06330989773326046</v>
+        <v>0.1855484371227707</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4608246558428277</v>
+        <v>0.4185284009649308</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.933759102536385</v>
+        <v>2.484436535182056</v>
       </c>
       <c r="C17">
-        <v>0.6502707831829753</v>
+        <v>0.2190853581870158</v>
       </c>
       <c r="D17">
-        <v>0.0390541321859601</v>
+        <v>0.09268913556207536</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.705018549712833</v>
+        <v>2.353622053312264</v>
       </c>
       <c r="G17">
-        <v>1.489512530610881</v>
+        <v>1.69875191687666</v>
       </c>
       <c r="H17">
-        <v>0.866820417193253</v>
+        <v>1.461566938305083</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06414472892938861</v>
+        <v>0.1861896375767795</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4432367582972319</v>
+        <v>0.4145832197470867</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.807567240362971</v>
+        <v>2.451314986125396</v>
       </c>
       <c r="C18">
-        <v>0.6353239821883676</v>
+        <v>0.2145033346999696</v>
       </c>
       <c r="D18">
-        <v>0.0384971863118686</v>
+        <v>0.09257173151198828</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.679541564251707</v>
+        <v>2.352204781986444</v>
       </c>
       <c r="G18">
-        <v>1.463492097539358</v>
+        <v>1.696374388294061</v>
       </c>
       <c r="H18">
-        <v>0.8571929376600167</v>
+        <v>1.46206748029843</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06463851123944764</v>
+        <v>0.1865651429536115</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4331810413990667</v>
+        <v>0.4123292262643758</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.764936356248711</v>
+        <v>2.44011372567843</v>
       </c>
       <c r="C19">
-        <v>0.6302705709869372</v>
+        <v>0.2129509528753601</v>
       </c>
       <c r="D19">
-        <v>0.03830914084009862</v>
+        <v>0.09253214632217066</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.67100834583421</v>
+        <v>2.35174993046931</v>
       </c>
       <c r="G19">
-        <v>1.454774073812615</v>
+        <v>1.695590639106001</v>
       </c>
       <c r="H19">
-        <v>0.8539806106689127</v>
+        <v>1.462251111454293</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06480799860642072</v>
+        <v>0.1866934340695465</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4297863278798673</v>
+        <v>0.411568671094301</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.957160804914565</v>
+        <v>2.49057281944016</v>
       </c>
       <c r="C20">
-        <v>0.6530406879626582</v>
+        <v>0.2199329181669896</v>
       </c>
       <c r="D20">
-        <v>0.03915746620190319</v>
+        <v>0.09271094305097449</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.709778557366832</v>
+        <v>2.353896245566759</v>
       </c>
       <c r="G20">
-        <v>1.494372769337332</v>
+        <v>1.699202041819746</v>
       </c>
       <c r="H20">
-        <v>0.8686250805100144</v>
+        <v>1.461481026284446</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06405444248432701</v>
+        <v>0.1861206868875449</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4451026775393672</v>
+        <v>0.4150016215965024</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.610313332642249</v>
+        <v>2.661018105492587</v>
       </c>
       <c r="C21">
-        <v>0.7301240305946237</v>
+        <v>0.2433222930271768</v>
       </c>
       <c r="D21">
-        <v>0.04204790506036105</v>
+        <v>0.09332313815150428</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.84692962696549</v>
+        <v>2.362851400375817</v>
       </c>
       <c r="G21">
-        <v>1.6342721361043</v>
+        <v>1.712818501759955</v>
       </c>
       <c r="H21">
-        <v>0.9213314774715968</v>
+        <v>1.459880146095344</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06168800452308076</v>
+        <v>0.1842764268409098</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4973150995131874</v>
+        <v>0.4267169168088571</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.043460159939855</v>
+        <v>2.77308787281811</v>
       </c>
       <c r="C22">
-        <v>0.7810217644159252</v>
+        <v>0.2585566835211068</v>
       </c>
       <c r="D22">
-        <v>0.04397142373782614</v>
+        <v>0.09373170345183723</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.942239003724154</v>
+        <v>2.370008369064308</v>
       </c>
       <c r="G22">
-        <v>1.73137752799741</v>
+        <v>1.722828579306679</v>
       </c>
       <c r="H22">
-        <v>0.9586498260931364</v>
+        <v>1.459571168314682</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06027135045754051</v>
+        <v>0.1831307808626654</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5320710894092713</v>
+        <v>0.4345080255329208</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.811651168134802</v>
+        <v>2.713212719473063</v>
       </c>
       <c r="C23">
-        <v>0.753803188221724</v>
+        <v>0.2504305804637568</v>
       </c>
       <c r="D23">
-        <v>0.04294134430078955</v>
+        <v>0.09351287557823795</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.890814894007462</v>
+        <v>2.366068927090211</v>
       </c>
       <c r="G23">
-        <v>1.678993073161223</v>
+        <v>1.717383982376873</v>
       </c>
       <c r="H23">
-        <v>0.9384518441097782</v>
+        <v>1.459668482150249</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06101510338202587</v>
+        <v>0.1837367730995005</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5134584386641592</v>
+        <v>0.430337487390787</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.946579271920029</v>
+        <v>2.487798414433826</v>
       </c>
       <c r="C24">
-        <v>0.6517882950444971</v>
+        <v>0.2195497607013124</v>
       </c>
       <c r="D24">
-        <v>0.03911073975730162</v>
+        <v>0.09270108105359753</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.707624865287741</v>
+        <v>2.353771831404089</v>
       </c>
       <c r="G24">
-        <v>1.492173775952409</v>
+        <v>1.69899815808094</v>
       </c>
       <c r="H24">
-        <v>0.8678083251301416</v>
+        <v>1.461519609587867</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0640952180123584</v>
+        <v>0.1861518380923339</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4442589226539866</v>
+        <v>0.4148124180596966</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.035222813358132</v>
+        <v>2.247571709106694</v>
       </c>
       <c r="C25">
-        <v>0.5434313900539678</v>
+        <v>0.1860196670606058</v>
       </c>
       <c r="D25">
-        <v>0.03509888564305896</v>
+        <v>0.09186229139888269</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.531020974854712</v>
+        <v>2.346077457336193</v>
       </c>
       <c r="G25">
-        <v>1.311492545692431</v>
+        <v>1.683897360658904</v>
       </c>
       <c r="H25">
-        <v>0.8023116308897613</v>
+        <v>1.466668590543236</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06793390546884126</v>
+        <v>0.1890131913223598</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3718810172005789</v>
+        <v>0.398646425029753</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_177/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_177/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.073190472657984</v>
+        <v>3.377749692773023</v>
       </c>
       <c r="C2">
-        <v>0.1611398126446772</v>
+        <v>0.4645516874732607</v>
       </c>
       <c r="D2">
-        <v>0.09127684349529019</v>
+        <v>0.03222142171686571</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.345165255646435</v>
+        <v>1.415754461024278</v>
       </c>
       <c r="G2">
-        <v>1.676800007928222</v>
+        <v>1.192930549399591</v>
       </c>
       <c r="H2">
-        <v>1.473155296510186</v>
+        <v>0.7617061192885615</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1913408601438089</v>
+        <v>0.0711641945063981</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3872427179576903</v>
+        <v>0.3200891884570041</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.95656535736407</v>
+        <v>2.938394054844991</v>
       </c>
       <c r="C3">
-        <v>0.1441581447731153</v>
+        <v>0.41142376911111</v>
       </c>
       <c r="D3">
-        <v>0.09090038879359597</v>
+        <v>0.03030784876625958</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.347493863243159</v>
+        <v>1.345417517731704</v>
       </c>
       <c r="G3">
-        <v>1.674475025908563</v>
+        <v>1.120112149035563</v>
       </c>
       <c r="H3">
-        <v>1.479225310039354</v>
+        <v>0.7382519539413295</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1930563297397931</v>
+        <v>0.07358774328882056</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3798261718278297</v>
+        <v>0.2857303063606764</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.885725325509839</v>
+        <v>2.671042446961224</v>
       </c>
       <c r="C4">
-        <v>0.133672008254365</v>
+        <v>0.3788978047799105</v>
       </c>
       <c r="D4">
-        <v>0.09067935948151984</v>
+        <v>0.02914776081634685</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.350371484442704</v>
+        <v>1.305645429355309</v>
       </c>
       <c r="G4">
-        <v>1.674265717346486</v>
+        <v>1.078675160720593</v>
       </c>
       <c r="H4">
-        <v>1.483775618622062</v>
+        <v>0.7256527668443198</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1941777628944834</v>
+        <v>0.07518615709896892</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3754265323428854</v>
+        <v>0.2649422277192173</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.857051517381478</v>
+        <v>2.562614000338669</v>
       </c>
       <c r="C5">
-        <v>0.1293839957401701</v>
+        <v>0.3656580301296231</v>
       </c>
       <c r="D5">
-        <v>0.09059184975274093</v>
+        <v>0.02867833803177078</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.351907474466913</v>
+        <v>1.290238876165901</v>
       </c>
       <c r="G5">
-        <v>1.674485754647648</v>
+        <v>1.062552039041208</v>
       </c>
       <c r="H5">
-        <v>1.485836617885639</v>
+        <v>0.7209437465586319</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1946518946041724</v>
+        <v>0.0758645384860781</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.37367250810928</v>
+        <v>0.2565407935452271</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.852302002411648</v>
+        <v>2.544638478586251</v>
       </c>
       <c r="C6">
-        <v>0.1286710817993253</v>
+        <v>0.3634602208824163</v>
       </c>
       <c r="D6">
-        <v>0.09057747407240413</v>
+        <v>0.02860058012646505</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.352184447540779</v>
+        <v>1.287727385529564</v>
       </c>
       <c r="G6">
-        <v>1.674540703639309</v>
+        <v>1.059919189407012</v>
       </c>
       <c r="H6">
-        <v>1.486191320991537</v>
+        <v>0.720186724600353</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1947316591574335</v>
+        <v>0.07597879429235377</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3733836041171514</v>
+        <v>0.2551497484272147</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.885337833478559</v>
+        <v>2.669578150631537</v>
       </c>
       <c r="C7">
-        <v>0.1336142385247285</v>
+        <v>0.3787191999369384</v>
       </c>
       <c r="D7">
-        <v>0.09067816889870883</v>
+        <v>0.02914141707903539</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.350390729196576</v>
+        <v>1.305434481961115</v>
       </c>
       <c r="G7">
-        <v>1.674267449907205</v>
+        <v>1.078454707000773</v>
       </c>
       <c r="H7">
-        <v>1.483802577436961</v>
+        <v>0.7255875728829153</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1941840877974688</v>
+        <v>0.07519519753894244</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3754027194589753</v>
+        <v>0.2648286498489796</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.032819167844821</v>
+        <v>3.225703758784675</v>
       </c>
       <c r="C8">
-        <v>0.1552968944695863</v>
+        <v>0.446207834701255</v>
       </c>
       <c r="D8">
-        <v>0.09114495291554903</v>
+        <v>0.03155827677573697</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.34566720914745</v>
+        <v>1.390757368128192</v>
       </c>
       <c r="G8">
-        <v>1.675744898377218</v>
+        <v>1.167105551835675</v>
       </c>
       <c r="H8">
-        <v>1.475077171409893</v>
+        <v>0.753227797003845</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1919182186128623</v>
+        <v>0.07197647663768514</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3846535565816822</v>
+        <v>0.308173424999211</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.32810404988254</v>
+        <v>4.339788248079515</v>
       </c>
       <c r="C9">
-        <v>0.1973440037238561</v>
+        <v>0.5797576276258667</v>
       </c>
       <c r="D9">
-        <v>0.09213987700297466</v>
+        <v>0.03643677321174366</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.347928519379877</v>
+        <v>1.588011567862992</v>
       </c>
       <c r="G9">
-        <v>1.68835626697981</v>
+        <v>1.369892728046068</v>
       </c>
       <c r="H9">
-        <v>1.464514404433629</v>
+        <v>0.8230920116737934</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.188015058170647</v>
+        <v>0.06657558850305634</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4040144515012969</v>
+        <v>0.3960007710556823</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.548750816030122</v>
+        <v>5.179402052864418</v>
       </c>
       <c r="C10">
-        <v>0.2279487546029202</v>
+        <v>0.6793170288479473</v>
       </c>
       <c r="D10">
-        <v>0.09291854064959182</v>
+        <v>0.04013959660076694</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.356669461281967</v>
+        <v>1.755525221749707</v>
       </c>
       <c r="G10">
-        <v>1.70361393355725</v>
+        <v>1.541063955287285</v>
       </c>
       <c r="H10">
-        <v>1.460768367579419</v>
+        <v>0.88605854085327</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1854761800365274</v>
+        <v>0.06321651010737206</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4189806271361647</v>
+        <v>0.4628400432106048</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.649934126848962</v>
+        <v>5.567642262618392</v>
       </c>
       <c r="C11">
-        <v>0.241809711273504</v>
+        <v>0.7251007771763511</v>
       </c>
       <c r="D11">
-        <v>0.09328297395022744</v>
+        <v>0.04185869917213836</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.362195195546477</v>
+        <v>1.837723448765828</v>
       </c>
       <c r="G11">
-        <v>1.711871546500248</v>
+        <v>1.624888451912085</v>
       </c>
       <c r="H11">
-        <v>1.459940950688036</v>
+        <v>0.9177544565079927</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1843924534483552</v>
+        <v>0.06183391653753745</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4259499342398243</v>
+        <v>0.493896521240444</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.68836572958952</v>
+        <v>5.715722101530844</v>
       </c>
       <c r="C12">
-        <v>0.2470496538507234</v>
+        <v>0.7425256208358064</v>
       </c>
       <c r="D12">
-        <v>0.09342242966280523</v>
+        <v>0.04251551455277891</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.364511362379801</v>
+        <v>1.869813913159561</v>
       </c>
       <c r="G12">
-        <v>1.715189028635706</v>
+        <v>1.657594249727481</v>
       </c>
       <c r="H12">
-        <v>1.459754085665736</v>
+        <v>0.9302450644413796</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1839923094945881</v>
+        <v>0.06133253571460529</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4286121391527615</v>
+        <v>0.50576411912607</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.680083663777793</v>
+        <v>5.683780562652373</v>
       </c>
       <c r="C13">
-        <v>0.2459215356579989</v>
+        <v>0.7387686919022372</v>
       </c>
       <c r="D13">
-        <v>0.09339233102309663</v>
+        <v>0.04237378373140999</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.364002571549733</v>
+        <v>1.862858053572708</v>
       </c>
       <c r="G13">
-        <v>1.714466058524806</v>
+        <v>1.650505804328418</v>
       </c>
       <c r="H13">
-        <v>1.459788699732115</v>
+        <v>0.9275324402809701</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1840780322643063</v>
+        <v>0.06143950922534103</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4280377606104366</v>
+        <v>0.5032032204287589</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.653093604000333</v>
+        <v>5.579802644415963</v>
       </c>
       <c r="C14">
-        <v>0.2422409833686459</v>
+        <v>0.7265324736746379</v>
       </c>
       <c r="D14">
-        <v>0.0932944180313342</v>
+        <v>0.04191261372037758</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.362381259800003</v>
+        <v>1.840343612651324</v>
       </c>
       <c r="G14">
-        <v>1.712140653205495</v>
+        <v>1.62755921929147</v>
       </c>
       <c r="H14">
-        <v>1.459923040474564</v>
+        <v>0.9187719838216424</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1843593281533877</v>
+        <v>0.06179221548248037</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4261684933916854</v>
+        <v>0.4948706444844504</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.63657645481203</v>
+        <v>5.516256367966719</v>
       </c>
       <c r="C15">
-        <v>0.2399853771734399</v>
+        <v>0.7190493595496434</v>
       </c>
       <c r="D15">
-        <v>0.09323463221182493</v>
+        <v>0.04163091978030664</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.361417317057814</v>
+        <v>1.826681588013429</v>
       </c>
       <c r="G15">
-        <v>1.710741118528915</v>
+        <v>1.613632585243124</v>
       </c>
       <c r="H15">
-        <v>1.460021808632405</v>
+        <v>0.9134710626929916</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1845329634787198</v>
+        <v>0.06201118602174205</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4250265162912683</v>
+        <v>0.489781087752732</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.542154478893167</v>
+        <v>5.154169309425015</v>
       </c>
       <c r="C16">
-        <v>0.2270416675325748</v>
+        <v>0.6763362585210189</v>
       </c>
       <c r="D16">
-        <v>0.09289492823839751</v>
+        <v>0.04002801638592146</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.35633959563782</v>
+        <v>1.750282456482921</v>
       </c>
       <c r="G16">
-        <v>1.703100874837361</v>
+        <v>1.535714558372803</v>
       </c>
       <c r="H16">
-        <v>1.460840115853443</v>
+        <v>0.8840526349434015</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1855484371227707</v>
+        <v>0.06330989773323914</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4185284009649308</v>
+        <v>0.460824655842913</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.484436535182056</v>
+        <v>4.933759102536385</v>
       </c>
       <c r="C17">
-        <v>0.2190853581870158</v>
+        <v>0.650270783183089</v>
       </c>
       <c r="D17">
-        <v>0.09268913556207536</v>
+        <v>0.03905413218614839</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.353622053312264</v>
+        <v>1.70501854971279</v>
       </c>
       <c r="G17">
-        <v>1.69875191687666</v>
+        <v>1.489512530610796</v>
       </c>
       <c r="H17">
-        <v>1.461566938305083</v>
+        <v>0.866820417193253</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1861896375767795</v>
+        <v>0.06414472892934064</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4145832197470867</v>
+        <v>0.4432367582972603</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.451314986125396</v>
+        <v>4.807567240363028</v>
       </c>
       <c r="C18">
-        <v>0.2145033346999696</v>
+        <v>0.6353239821882823</v>
       </c>
       <c r="D18">
-        <v>0.09257173151198828</v>
+        <v>0.03849718631196097</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.352204781986444</v>
+        <v>1.679541564251707</v>
       </c>
       <c r="G18">
-        <v>1.696374388294061</v>
+        <v>1.463492097539387</v>
       </c>
       <c r="H18">
-        <v>1.46206748029843</v>
+        <v>0.857192937659903</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1865651429536115</v>
+        <v>0.06463851123945119</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4123292262643758</v>
+        <v>0.4331810413990098</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.44011372567843</v>
+        <v>4.764936356248654</v>
       </c>
       <c r="C19">
-        <v>0.2129509528753601</v>
+        <v>0.6302705709869656</v>
       </c>
       <c r="D19">
-        <v>0.09253214632217066</v>
+        <v>0.03830914084019454</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.35174993046931</v>
+        <v>1.67100834583421</v>
       </c>
       <c r="G19">
-        <v>1.695590639106001</v>
+        <v>1.454774073812558</v>
       </c>
       <c r="H19">
-        <v>1.462251111454293</v>
+        <v>0.8539806106690264</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1866934340695465</v>
+        <v>0.06480799860637276</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.411568671094301</v>
+        <v>0.4297863278798246</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.49057281944016</v>
+        <v>4.957160804914565</v>
       </c>
       <c r="C20">
-        <v>0.2199329181669896</v>
+        <v>0.6530406879627719</v>
       </c>
       <c r="D20">
-        <v>0.09271094305097449</v>
+        <v>0.03915746620193161</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.353896245566759</v>
+        <v>1.709778557366832</v>
       </c>
       <c r="G20">
-        <v>1.699202041819746</v>
+        <v>1.494372769337332</v>
       </c>
       <c r="H20">
-        <v>1.461481026284446</v>
+        <v>0.8686250805100144</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1861206868875449</v>
+        <v>0.06405444248426129</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4150016215965024</v>
+        <v>0.4451026775393387</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.661018105492587</v>
+        <v>5.610313332642306</v>
       </c>
       <c r="C21">
-        <v>0.2433222930271768</v>
+        <v>0.7301240305944532</v>
       </c>
       <c r="D21">
-        <v>0.09332313815150428</v>
+        <v>0.04204790506048894</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.362851400375817</v>
+        <v>1.84692962696549</v>
       </c>
       <c r="G21">
-        <v>1.712818501759955</v>
+        <v>1.6342721361043</v>
       </c>
       <c r="H21">
-        <v>1.459880146095344</v>
+        <v>0.9213314774715968</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1842764268409098</v>
+        <v>0.06168800452306655</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4267169168088571</v>
+        <v>0.4973150995130879</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.77308787281811</v>
+        <v>6.043460159939968</v>
       </c>
       <c r="C22">
-        <v>0.2585566835211068</v>
+        <v>0.7810217644160389</v>
       </c>
       <c r="D22">
-        <v>0.09373170345183723</v>
+        <v>0.04397142373792917</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.370008369064308</v>
+        <v>1.942239003724097</v>
       </c>
       <c r="G22">
-        <v>1.722828579306679</v>
+        <v>1.731377527997324</v>
       </c>
       <c r="H22">
-        <v>1.459571168314682</v>
+        <v>0.9586498260931364</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1831307808626654</v>
+        <v>0.06027135045758314</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4345080255329208</v>
+        <v>0.5320710894092713</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.713212719473063</v>
+        <v>5.811651168134858</v>
       </c>
       <c r="C23">
-        <v>0.2504305804637568</v>
+        <v>0.7538031882214398</v>
       </c>
       <c r="D23">
-        <v>0.09351287557823795</v>
+        <v>0.04294134430101337</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.366068927090211</v>
+        <v>1.890814894007462</v>
       </c>
       <c r="G23">
-        <v>1.717383982376873</v>
+        <v>1.67899307316128</v>
       </c>
       <c r="H23">
-        <v>1.459668482150249</v>
+        <v>0.9384518441097782</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1837367730995005</v>
+        <v>0.06101510338210758</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.430337487390787</v>
+        <v>0.5134584386641734</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.487798414433826</v>
+        <v>4.946579271920029</v>
       </c>
       <c r="C24">
-        <v>0.2195497607013124</v>
+        <v>0.6517882950444687</v>
       </c>
       <c r="D24">
-        <v>0.09270108105359753</v>
+        <v>0.03911073975729096</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.353771831404089</v>
+        <v>1.707624865287727</v>
       </c>
       <c r="G24">
-        <v>1.69899815808094</v>
+        <v>1.492173775952494</v>
       </c>
       <c r="H24">
-        <v>1.461519609587867</v>
+        <v>0.8678083251301416</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1861518380923339</v>
+        <v>0.06409521801244544</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4148124180596966</v>
+        <v>0.4442589226539866</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.247571709106694</v>
+        <v>4.035222813358132</v>
       </c>
       <c r="C25">
-        <v>0.1860196670606058</v>
+        <v>0.5434313900542804</v>
       </c>
       <c r="D25">
-        <v>0.09186229139888269</v>
+        <v>0.03509888564311581</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.346077457336193</v>
+        <v>1.531020974854727</v>
       </c>
       <c r="G25">
-        <v>1.683897360658904</v>
+        <v>1.311492545692431</v>
       </c>
       <c r="H25">
-        <v>1.466668590543236</v>
+        <v>0.8023116308897613</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1890131913223598</v>
+        <v>0.06793390546892297</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.398646425029753</v>
+        <v>0.3718810172005078</v>
       </c>
       <c r="M25">
         <v>0</v>
